--- a/PS1/PS1_Crack.xlsx
+++ b/PS1/PS1_Crack.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t xml:space="preserve">SNO</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t xml:space="preserve">Size(mb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Positive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negative</t>
   </si>
   <si>
     <t xml:space="preserve">vit_tiny_r_s16_p8_224</t>
@@ -301,26 +307,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+      <selection pane="topLeft" activeCell="N8" activeCellId="0" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="16.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="9" style="2" width="8.89"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -365,151 +371,132 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3"/>
+      <c r="D2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>0.000554299960640491</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>0.0162891943918321</v>
-      </c>
-      <c r="F2" s="7" t="n">
-        <v>98.5576923076923</v>
-      </c>
-      <c r="G2" s="7" t="n">
-        <v>0.0168405814239612</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P2" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q2" s="2" t="n">
-        <v>24.64</v>
-      </c>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>14</v>
+      <c r="A3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="7" t="n">
+        <v>0.000554299960640491</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E3" s="7" t="n">
+        <v>0.0162891943918321</v>
+      </c>
+      <c r="F3" s="7" t="n">
+        <v>98.5576923076923</v>
+      </c>
+      <c r="G3" s="7" t="n">
+        <v>0.0168405814239612</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="n">
         <v>8.6542291731013E-006</v>
       </c>
-      <c r="D3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" s="7" t="n">
+      <c r="D4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" s="7" t="n">
         <v>0.341207414359325</v>
       </c>
-      <c r="F3" s="7" t="n">
+      <c r="F4" s="7" t="n">
         <v>96.1538461538461</v>
       </c>
-      <c r="G3" s="7" t="n">
+      <c r="G4" s="7" t="n">
         <v>1.32988578424848</v>
       </c>
-      <c r="H3" s="7" t="n">
+      <c r="H4" s="7" t="n">
         <v>84.1346153846153</v>
       </c>
-      <c r="I3" s="7" t="n">
+      <c r="I4" s="7" t="n">
         <v>0.75757576</v>
       </c>
-      <c r="J3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="7" t="n">
+      <c r="J4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7" t="n">
         <v>0.68</v>
       </c>
-      <c r="M3" s="7" t="n">
+      <c r="M4" s="7" t="n">
         <v>0.86206897</v>
       </c>
-      <c r="N3" s="7" t="n">
+      <c r="N4" s="7" t="n">
         <v>0.80952381</v>
-      </c>
-      <c r="O3" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="P3" s="7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="7" t="n">
-        <v>0.000391737806766238</v>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>0.0066456968404684</v>
-      </c>
-      <c r="F4" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" s="7" t="n">
-        <v>0.00862143541542956</v>
-      </c>
-      <c r="H4" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" s="7" t="n">
-        <v>1</v>
       </c>
       <c r="O4" s="7" t="n">
         <v>100</v>
@@ -523,205 +510,205 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7" t="n">
+        <v>0.000391737806766238</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="7" t="n">
+        <v>0.0066456968404684</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G5" s="7" t="n">
+        <v>0.00862143541542956</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="7" t="n">
+        <v>24.64</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="7" t="n">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="7" t="n">
         <v>0.000114268117565523</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E5" s="7" t="n">
+      <c r="D6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E6" s="7" t="n">
         <v>0.000981450813504544</v>
       </c>
-      <c r="F5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" s="7" t="n">
+      <c r="F6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="G6" s="7" t="n">
         <v>0.00134592478011304</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="P5" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q5" s="7" t="n">
+      <c r="H6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="7" t="n">
         <v>86.74</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>0.00109570801348462</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>0.0165256364203882</v>
-      </c>
-      <c r="F6" s="7" t="n">
-        <v>99.0384615384615</v>
-      </c>
-      <c r="G6" s="7" t="n">
-        <v>0.0172053847032097</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="P6" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>86.72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="8" t="n">
-        <v>2.3389291264948E-005</v>
+        <v>20</v>
+      </c>
+      <c r="C7" s="7" t="n">
+        <v>0.00109570801348462</v>
       </c>
       <c r="D7" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E7" s="7" t="n">
-        <v>0.0109473363600591</v>
+        <v>0.0165256364203882</v>
       </c>
       <c r="F7" s="7" t="n">
-        <v>99.5</v>
+        <v>99.0384615384615</v>
       </c>
       <c r="G7" s="7" t="n">
-        <v>0.0298415567417396</v>
-      </c>
-      <c r="H7" s="7" t="n">
-        <v>99</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" s="7" t="n">
-        <v>0.98039216</v>
+        <v>0.0172053847032097</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K7" s="7" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="L7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="7" t="n">
-        <v>0.98989899</v>
-      </c>
-      <c r="N7" s="7" t="n">
-        <v>0.99009901</v>
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="O7" s="7" t="n">
         <v>100</v>
       </c>
-      <c r="P7" s="7" t="n">
+      <c r="P7" s="2" t="n">
         <v>100</v>
       </c>
       <c r="Q7" s="7" t="n">
-        <v>343.3</v>
+        <v>86.72</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="8" t="n">
-        <v>2.89044866921509E-005</v>
+        <v>2.3389291264948E-005</v>
       </c>
       <c r="D8" s="2" t="n">
         <v>100</v>
       </c>
       <c r="E8" s="7" t="n">
-        <v>0.000303537664754003</v>
+        <v>0.0109473363600591</v>
       </c>
       <c r="F8" s="7" t="n">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="G8" s="7" t="n">
-        <v>0.000899293540896906</v>
+        <v>0.0298415567417396</v>
       </c>
       <c r="H8" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="I8" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="I8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>1</v>
+        <v>0.98039216</v>
       </c>
       <c r="K8" s="7" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="L8" s="7" t="n">
         <v>1</v>
       </c>
       <c r="M8" s="7" t="n">
-        <v>1</v>
+        <v>0.98989899</v>
       </c>
       <c r="N8" s="7" t="n">
-        <v>1</v>
+        <v>0.99009901</v>
       </c>
       <c r="O8" s="7" t="n">
         <v>100</v>
@@ -730,63 +717,131 @@
         <v>100</v>
       </c>
       <c r="Q8" s="7" t="n">
-        <v>343.26</v>
+        <v>343.3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="8" t="n">
+        <v>2.89044866921509E-005</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7" t="n">
+        <v>0.000303537664754003</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G9" s="7" t="n">
+        <v>0.000899293540896906</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="I9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P9" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>343.26</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7" t="n">
+      <c r="B10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="7" t="n">
         <v>0.000131708909235233</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="E9" s="7" t="n">
+      <c r="D10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="E10" s="7" t="n">
         <v>0.00477138461696085</v>
       </c>
-      <c r="F9" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G9" s="7" t="n">
+      <c r="F10" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="G10" s="7" t="n">
         <v>0.0421330400995793</v>
       </c>
-      <c r="H9" s="7" t="n">
+      <c r="H10" s="7" t="n">
         <v>99.5</v>
       </c>
-      <c r="I9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" s="7" t="n">
+      <c r="I10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="7" t="n">
         <v>0.99009901</v>
       </c>
-      <c r="K9" s="7" t="n">
+      <c r="K10" s="7" t="n">
         <v>0.99</v>
       </c>
-      <c r="L9" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7" t="n">
+      <c r="L10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7" t="n">
         <v>0.99497487</v>
       </c>
-      <c r="N9" s="7" t="n">
+      <c r="N10" s="7" t="n">
         <v>0.99502488</v>
       </c>
-      <c r="O9" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="P9" s="7" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>22</v>
+      <c r="O10" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="P10" s="7" t="n">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
